--- a/estadísticas-regionales-nuevo.xlsx
+++ b/estadísticas-regionales-nuevo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Desktop\DI\Notebooks\EstadisticasRegionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\logicaEstadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BBC3E-4448-4E38-95AD-4A9E9AD5D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E5CA9E-70A5-40C5-B055-177B73319CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,18 +530,9 @@
     <t>2021-06-01 00:00:00</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls?sfvrsn=d7d8b46a_9</t>
-  </si>
-  <si>
     <t>GWh</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica/cuadros-estad%C3%ADsticos/series-mensuales/distribucion-de-energia-electrica.xlsx?sfvrsn=3b775cf8_8</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls?sfvrsn=e4ee2a5f_8</t>
-  </si>
-  <si>
     <t>Generación Ciclo Combinado</t>
   </si>
   <si>
@@ -569,27 +560,6 @@
     <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en GWH a los clientes residenciales. </t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls?sfvrsn=19916454_8</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx?sfvrsn=fd785c8a_8</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-grupos-de-especies.xlsx?sfvrsn=b9e07ae1_10</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-especies.xlsx?sfvrsn=1536e05_8</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xiv/estadisticas-r14/pesca/cuadro-226-01-los-r%C3%ADos-desembarque-total-en-toneladas_-2008-a-la-fecha-seg%C3%BAn-mes.xls?sfvrsn=72c510a0_66</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-x/estadisticas-r10/estad%C3%ADsticas-econ%C3%B3micas/agricultura-ganader%C3%ADa-silvicultura-y-pesca/pesca/1-desembarque-pesquero-seg%C3%BAn-grupos-de-especies.xlsx?sfvrsn=288b3b5e_54</t>
-  </si>
-  <si>
     <t>5.2.7</t>
   </si>
   <si>
@@ -653,15 +623,9 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-iv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/2021/energ%C3%ADa-el%C3%A9ctrica---per%C3%ADodo-julio-2021.xls?sfvrsn=cc183a4_4</t>
-  </si>
-  <si>
     <t>Biobio</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8</t>
-  </si>
-  <si>
     <t>Distribución Electrica</t>
   </si>
   <si>
@@ -681,6 +645,42 @@
   </si>
   <si>
     <t>Industrial</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-iv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/2021/energ%C3%ADa-el%C3%A9ctrica---per%C3%ADodo-julio-2021.xls</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica/cuadros-estad%C3%ADsticos/series-mensuales/distribucion-de-energia-electrica.xlsx</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-grupos-de-especies.xlsx</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-especies.xlsx</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-xiv/estadisticas-r14/pesca/cuadro-226-01-los-r%C3%ADos-desembarque-total-en-toneladas_-2008-a-la-fecha-seg%C3%BAn-mes.xls</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-x/estadisticas-r10/estad%C3%ADsticas-econ%C3%B3micas/agricultura-ganader%C3%ADa-silvicultura-y-pesca/pesca/1-desembarque-pesquero-seg%C3%BAn-grupos-de-especies.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3220,10 +3220,10 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J8">
         <v>94.887</v>
@@ -3519,10 +3519,10 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J9">
         <v>53.103999999999999</v>
@@ -3818,10 +3818,10 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J10">
         <v>4.0000000000000001E-3</v>
@@ -4117,10 +4117,10 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J11">
         <v>8.7059999999999995</v>
@@ -4416,10 +4416,10 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J12">
         <v>392.79399999999998</v>
@@ -4715,10 +4715,10 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J13">
         <v>73.066000000000003</v>
@@ -7095,10 +7095,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
@@ -7107,7 +7107,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J21">
         <v>52215</v>
@@ -8279,10 +8279,10 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -8291,7 +8291,7 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
@@ -9794,10 +9794,10 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
         <v>50</v>
@@ -9806,7 +9806,7 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J40">
         <v>227.02500000000003</v>
@@ -10090,10 +10090,10 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -10102,7 +10102,7 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J41">
         <v>3.62</v>
@@ -10386,10 +10386,10 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -10398,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J42">
         <v>36.266999999999996</v>
@@ -10682,10 +10682,10 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -10694,7 +10694,7 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J43">
         <v>0.69000000000000006</v>
@@ -10978,10 +10978,10 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
@@ -10990,7 +10990,7 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J44">
         <v>123.2</v>
@@ -11274,10 +11274,10 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -11286,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J45">
         <v>13133</v>
@@ -11567,10 +11567,10 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -11579,7 +11579,7 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J46">
         <v>358</v>
@@ -11860,10 +11860,10 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -11872,7 +11872,7 @@
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J47">
         <v>24922</v>
@@ -12153,10 +12153,10 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -12165,7 +12165,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J48">
         <v>66390</v>
@@ -12446,10 +12446,10 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G49" t="s">
         <v>50</v>
@@ -12458,7 +12458,7 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J49">
         <v>68</v>
@@ -12739,10 +12739,10 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G50" t="s">
         <v>50</v>
@@ -12751,7 +12751,7 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AT50">
         <v>3575.1959999999995</v>
@@ -12930,10 +12930,10 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
         <v>50</v>
@@ -12942,7 +12942,7 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AT51">
         <v>20970.175999999999</v>
@@ -13121,10 +13121,10 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G52" t="s">
         <v>50</v>
@@ -13133,7 +13133,7 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AT52">
         <v>7944.598</v>
@@ -13312,10 +13312,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G53" t="s">
         <v>50</v>
@@ -13324,7 +13324,7 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AT53">
         <v>355.39699999999993</v>
@@ -13503,10 +13503,10 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G54" t="s">
         <v>50</v>
@@ -13515,7 +13515,7 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AT54">
         <v>31.252999999999997</v>
@@ -13697,7 +13697,7 @@
         <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
         <v>50</v>
@@ -13706,7 +13706,7 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AT55">
         <v>6.5</v>
@@ -14079,7 +14079,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G57" t="s">
         <v>50</v>
@@ -14088,7 +14088,7 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AT57">
         <v>0.57099999999999973</v>
@@ -14835,8 +14835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F5C55-E20C-404A-B8DF-996C2C4EB8D0}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14849,19 +14849,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14869,13 +14869,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -14886,47 +14886,47 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -14937,30 +14937,30 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
@@ -14971,30 +14971,30 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -15005,13 +15005,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
@@ -15022,13 +15022,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E11" s="6">
         <v>7</v>
@@ -15039,30 +15039,30 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E12" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="E13" s="6">
         <v>9</v>
@@ -15073,13 +15073,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
@@ -15090,13 +15090,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E15" s="6">
         <v>11</v>
@@ -15107,13 +15107,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="E16" s="6">
         <v>12</v>
@@ -15122,10 +15122,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{D828AFF8-08D5-421F-9B1E-2CC7F4922F6A}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{CDEE5F13-7EBF-497E-A401-20E58E21E041}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls?sfvrsn=e4ee2a5f_8" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{0E1DBE6F-6A9F-4505-BFA5-39048F8D8344}"/>
     <hyperlink ref="D12" r:id="rId6" xr:uid="{8B11536A-25BB-4C05-AD95-496321E3C38C}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{B469F178-AD3A-4B4E-B4DA-3E2CD2D06557}"/>
@@ -15134,13 +15134,15 @@
     <hyperlink ref="D7" r:id="rId10" xr:uid="{172A1560-D1F3-494B-83A2-15312FD2FD45}"/>
     <hyperlink ref="D2:D3" r:id="rId11" display="https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8" xr:uid="{3DCC711C-367F-4611-BB4A-60624EA47284}"/>
     <hyperlink ref="D8" r:id="rId12" xr:uid="{7A8EC8E0-FE2C-4C4F-9157-AD10A667D5DF}"/>
-    <hyperlink ref="D11" r:id="rId13" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10" xr:uid="{9A63F5A9-EACF-491F-A200-5F3D62DCA96C}"/>
+    <hyperlink ref="D11" r:id="rId13" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{9A63F5A9-EACF-491F-A200-5F3D62DCA96C}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{548030B2-C844-4078-8F39-EBC9F0137A23}"/>
+    <hyperlink ref="D2" r:id="rId15" xr:uid="{E6602239-DDB2-4079-B2CB-3ACFC82A4852}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{94A859C6-51CA-4A74-B217-45A18C2FB311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/estadísticas-regionales-nuevo.xlsx
+++ b/estadísticas-regionales-nuevo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\logicaEstadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E5CA9E-70A5-40C5-B055-177B73319CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB85B5-4670-4440-83D0-7F07123D10C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,40 +647,40 @@
     <t>Industrial</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-iv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/2021/energ%C3%ADa-el%C3%A9ctrica---per%C3%ADodo-julio-2021.xls</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica/cuadros-estad%C3%ADsticos/series-mensuales/distribucion-de-energia-electrica.xlsx</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-grupos-de-especies.xlsx</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-especies.xlsx</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xiv/estadisticas-r14/pesca/cuadro-226-01-los-r%C3%ADos-desembarque-total-en-toneladas_-2008-a-la-fecha-seg%C3%BAn-mes.xls</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-x/estadisticas-r10/estad%C3%ADsticas-econ%C3%B3micas/agricultura-ganader%C3%ADa-silvicultura-y-pesca/pesca/1-desembarque-pesquero-seg%C3%BAn-grupos-de-especies.xlsx</t>
+    <t>http://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-iv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/2021/energ%C3%ADa-el%C3%A9ctrica---per%C3%ADodo-julio-2021.xls</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica/cuadros-estad%C3%ADsticos/series-mensuales/distribucion-de-energia-electrica.xlsx</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-grupos-de-especies.xlsx</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-especies.xlsx</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-xiv/estadisticas-r14/pesca/cuadro-226-01-los-r%C3%ADos-desembarque-total-en-toneladas_-2008-a-la-fecha-seg%C3%BAn-mes.xls</t>
+  </si>
+  <si>
+    <t>http://regiones.ine.cl/documentos/default-source/region-x/estadisticas-r10/estad%C3%ADsticas-econ%C3%B3micas/agricultura-ganader%C3%ADa-silvicultura-y-pesca/pesca/1-desembarque-pesquero-seg%C3%BAn-grupos-de-especies.xlsx</t>
   </si>
 </sst>
 </file>
@@ -15122,7 +15122,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
+    <hyperlink ref="D10" r:id="rId1" display="http://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{D828AFF8-08D5-421F-9B1E-2CC7F4922F6A}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{CDEE5F13-7EBF-497E-A401-20E58E21E041}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
@@ -15134,7 +15134,7 @@
     <hyperlink ref="D7" r:id="rId10" xr:uid="{172A1560-D1F3-494B-83A2-15312FD2FD45}"/>
     <hyperlink ref="D2:D3" r:id="rId11" display="https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8" xr:uid="{3DCC711C-367F-4611-BB4A-60624EA47284}"/>
     <hyperlink ref="D8" r:id="rId12" xr:uid="{7A8EC8E0-FE2C-4C4F-9157-AD10A667D5DF}"/>
-    <hyperlink ref="D11" r:id="rId13" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{9A63F5A9-EACF-491F-A200-5F3D62DCA96C}"/>
+    <hyperlink ref="D11" r:id="rId13" display="http://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{9A63F5A9-EACF-491F-A200-5F3D62DCA96C}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{548030B2-C844-4078-8F39-EBC9F0137A23}"/>
     <hyperlink ref="D2" r:id="rId15" xr:uid="{E6602239-DDB2-4079-B2CB-3ACFC82A4852}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{94A859C6-51CA-4A74-B217-45A18C2FB311}"/>

--- a/estadísticas-regionales-nuevo.xlsx
+++ b/estadísticas-regionales-nuevo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\logicaEstadistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Desktop\DI\Notebooks\EstadisticasRegionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB85B5-4670-4440-83D0-7F07123D10C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BBC3E-4448-4E38-95AD-4A9E9AD5D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,9 +530,18 @@
     <t>2021-06-01 00:00:00</t>
   </si>
   <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls?sfvrsn=d7d8b46a_9</t>
+  </si>
+  <si>
     <t>GWh</t>
   </si>
   <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica/cuadros-estad%C3%ADsticos/series-mensuales/distribucion-de-energia-electrica.xlsx?sfvrsn=3b775cf8_8</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls?sfvrsn=e4ee2a5f_8</t>
+  </si>
+  <si>
     <t>Generación Ciclo Combinado</t>
   </si>
   <si>
@@ -560,6 +569,27 @@
     <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en GWH a los clientes residenciales. </t>
   </si>
   <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls?sfvrsn=19916454_8</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx?sfvrsn=fd785c8a_8</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-grupos-de-especies.xlsx?sfvrsn=b9e07ae1_10</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-especies.xlsx?sfvrsn=1536e05_8</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-xiv/estadisticas-r14/pesca/cuadro-226-01-los-r%C3%ADos-desembarque-total-en-toneladas_-2008-a-la-fecha-seg%C3%BAn-mes.xls?sfvrsn=72c510a0_66</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-x/estadisticas-r10/estad%C3%ADsticas-econ%C3%B3micas/agricultura-ganader%C3%ADa-silvicultura-y-pesca/pesca/1-desembarque-pesquero-seg%C3%BAn-grupos-de-especies.xlsx?sfvrsn=288b3b5e_54</t>
+  </si>
+  <si>
     <t>5.2.7</t>
   </si>
   <si>
@@ -623,9 +653,15 @@
     <t>Link</t>
   </si>
   <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-iv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/2021/energ%C3%ADa-el%C3%A9ctrica---per%C3%ADodo-julio-2021.xls?sfvrsn=cc183a4_4</t>
+  </si>
+  <si>
     <t>Biobio</t>
   </si>
   <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8</t>
+  </si>
+  <si>
     <t>Distribución Electrica</t>
   </si>
   <si>
@@ -645,42 +681,6 @@
   </si>
   <si>
     <t>Industrial</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-iv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/2021/energ%C3%ADa-el%C3%A9ctrica---per%C3%ADodo-julio-2021.xls</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica/cuadros-estad%C3%ADsticos/series-mensuales/distribucion-de-energia-electrica.xlsx</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-grupos-de-especies.xlsx</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/produccion-pesquera-en-centros-de-cultivos-por-especies.xlsx</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-xiv/estadisticas-r14/pesca/cuadro-226-01-los-r%C3%ADos-desembarque-total-en-toneladas_-2008-a-la-fecha-seg%C3%BAn-mes.xls</t>
-  </si>
-  <si>
-    <t>http://regiones.ine.cl/documentos/default-source/region-x/estadisticas-r10/estad%C3%ADsticas-econ%C3%B3micas/agricultura-ganader%C3%ADa-silvicultura-y-pesca/pesca/1-desembarque-pesquero-seg%C3%BAn-grupos-de-especies.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3220,10 +3220,10 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J8">
         <v>94.887</v>
@@ -3519,10 +3519,10 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J9">
         <v>53.103999999999999</v>
@@ -3818,10 +3818,10 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J10">
         <v>4.0000000000000001E-3</v>
@@ -4117,10 +4117,10 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J11">
         <v>8.7059999999999995</v>
@@ -4416,10 +4416,10 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J12">
         <v>392.79399999999998</v>
@@ -4715,10 +4715,10 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J13">
         <v>73.066000000000003</v>
@@ -7095,10 +7095,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
@@ -7107,7 +7107,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J21">
         <v>52215</v>
@@ -8279,10 +8279,10 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -8291,7 +8291,7 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
@@ -9794,10 +9794,10 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G40" t="s">
         <v>50</v>
@@ -9806,7 +9806,7 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J40">
         <v>227.02500000000003</v>
@@ -10090,10 +10090,10 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -10102,7 +10102,7 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J41">
         <v>3.62</v>
@@ -10386,10 +10386,10 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -10398,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J42">
         <v>36.266999999999996</v>
@@ -10682,10 +10682,10 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -10694,7 +10694,7 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J43">
         <v>0.69000000000000006</v>
@@ -10978,10 +10978,10 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
         <v>50</v>
@@ -10990,7 +10990,7 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J44">
         <v>123.2</v>
@@ -11274,10 +11274,10 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -11286,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J45">
         <v>13133</v>
@@ -11567,10 +11567,10 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -11579,7 +11579,7 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J46">
         <v>358</v>
@@ -11860,10 +11860,10 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -11872,7 +11872,7 @@
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J47">
         <v>24922</v>
@@ -12153,10 +12153,10 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -12165,7 +12165,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J48">
         <v>66390</v>
@@ -12446,10 +12446,10 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G49" t="s">
         <v>50</v>
@@ -12458,7 +12458,7 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J49">
         <v>68</v>
@@ -12739,10 +12739,10 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G50" t="s">
         <v>50</v>
@@ -12751,7 +12751,7 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AT50">
         <v>3575.1959999999995</v>
@@ -12930,10 +12930,10 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G51" t="s">
         <v>50</v>
@@ -12942,7 +12942,7 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AT51">
         <v>20970.175999999999</v>
@@ -13121,10 +13121,10 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
         <v>50</v>
@@ -13133,7 +13133,7 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AT52">
         <v>7944.598</v>
@@ -13312,10 +13312,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
         <v>50</v>
@@ -13324,7 +13324,7 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AT53">
         <v>355.39699999999993</v>
@@ -13503,10 +13503,10 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G54" t="s">
         <v>50</v>
@@ -13515,7 +13515,7 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AT54">
         <v>31.252999999999997</v>
@@ -13697,7 +13697,7 @@
         <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
         <v>50</v>
@@ -13706,7 +13706,7 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AT55">
         <v>6.5</v>
@@ -14079,7 +14079,7 @@
         <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G57" t="s">
         <v>50</v>
@@ -14088,7 +14088,7 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AT57">
         <v>0.57099999999999973</v>
@@ -14835,8 +14835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F5C55-E20C-404A-B8DF-996C2C4EB8D0}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14849,19 +14849,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14869,13 +14869,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -14886,47 +14886,47 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -14937,30 +14937,30 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
@@ -14971,30 +14971,30 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -15005,13 +15005,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="E10" s="6">
         <v>7</v>
@@ -15022,13 +15022,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="E11" s="6">
         <v>7</v>
@@ -15039,30 +15039,30 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="E12" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="E13" s="6">
         <v>9</v>
@@ -15073,13 +15073,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
@@ -15090,13 +15090,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E15" s="6">
         <v>11</v>
@@ -15107,13 +15107,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E16" s="6">
         <v>12</v>
@@ -15122,10 +15122,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="http://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{D828AFF8-08D5-421F-9B1E-2CC7F4922F6A}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{CDEE5F13-7EBF-497E-A401-20E58E21E041}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls?sfvrsn=e4ee2a5f_8" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{0E1DBE6F-6A9F-4505-BFA5-39048F8D8344}"/>
     <hyperlink ref="D12" r:id="rId6" xr:uid="{8B11536A-25BB-4C05-AD95-496321E3C38C}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{B469F178-AD3A-4B4E-B4DA-3E2CD2D06557}"/>
@@ -15134,15 +15134,13 @@
     <hyperlink ref="D7" r:id="rId10" xr:uid="{172A1560-D1F3-494B-83A2-15312FD2FD45}"/>
     <hyperlink ref="D2:D3" r:id="rId11" display="https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8" xr:uid="{3DCC711C-367F-4611-BB4A-60624EA47284}"/>
     <hyperlink ref="D8" r:id="rId12" xr:uid="{7A8EC8E0-FE2C-4C4F-9157-AD10A667D5DF}"/>
-    <hyperlink ref="D11" r:id="rId13" display="http://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls" xr:uid="{9A63F5A9-EACF-491F-A200-5F3D62DCA96C}"/>
+    <hyperlink ref="D11" r:id="rId13" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10" xr:uid="{9A63F5A9-EACF-491F-A200-5F3D62DCA96C}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{548030B2-C844-4078-8F39-EBC9F0137A23}"/>
-    <hyperlink ref="D2" r:id="rId15" xr:uid="{E6602239-DDB2-4079-B2CB-3ACFC82A4852}"/>
-    <hyperlink ref="D3" r:id="rId16" xr:uid="{94A859C6-51CA-4A74-B217-45A18C2FB311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>